--- a/reporte_personas.xlsx
+++ b/reporte_personas.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="ReporteXML" sheetId="1" r:id="rId1"/>
+    <sheet name="Coffee_3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="JR_PAGE_ANCHOR_0_1">'ReporteXML'!$A$1</definedName>
+    <definedName name="JR_PAGE_ANCHOR_0_1">'Coffee_3'!$A$1</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -25,6 +25,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="50.0"/>
+      <color rgb="000000"/>
+      <name val="Times New Roman"/>
+      <b val="true"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="736343"/>
+      <name val="Times New Roman"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
@@ -34,6 +54,36 @@
       <strike val="false"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="736343"/>
+      <name val="Arial"/>
+      <b val="true"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <name val="Arial"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="736343"/>
+      <name val="Arial"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -52,6 +102,71 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6DAC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6DAC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F2EBDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F2EBDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F2EBDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F2EBDF"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,6 +193,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left>
+        <color rgb="736343"/>
+      </left>
+      <right>
+        <color rgb="736343"/>
+      </right>
+      <top>
+        <color rgb="736343"/>
+      </top>
+      <bottom>
+        <color rgb="736343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="666666"/>
+      </left>
+      <right>
+        <color rgb="666666"/>
+      </right>
+      <top>
+        <color rgb="666666"/>
+      </top>
+      <bottom>
+        <color rgb="666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="000000"/>
+      </left>
+      <right>
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="999999"/>
+      </top>
+      <bottom>
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="D0B48E"/>
+      </left>
+      <right>
+        <color rgb="D0B48E"/>
+      </right>
+      <top>
+        <color rgb="D0B48E"/>
+      </top>
+      <bottom>
+        <color rgb="D0B48E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf/>
@@ -88,9 +263,61 @@
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
     </xf>
   </cellXfs>
   <dxfs count="0"/>
@@ -100,6 +327,42 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1633566545" name="Picture">
+</xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="img_0_0_0.jpg"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect l="0" t="0" r="0" b="2380"/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -114,12 +377,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="3.3333333"/>
-    <col min="2" max="2" customWidth="1" width="16.666666"/>
-    <col min="3" max="3" customWidth="1" width="3.3333333"/>
-    <col min="4" max="4" customWidth="1" width="8.333333"/>
-    <col min="5" max="5" customWidth="1" width="5.0"/>
-    <col min="6" max="6" customWidth="1" width="62.5"/>
+    <col min="1" max="1" customWidth="1" width="0.16666667"/>
+    <col min="2" max="2" customWidth="1" width="3.3333333"/>
+    <col min="3" max="3" customWidth="1" width="0.16666667"/>
+    <col min="4" max="4" customWidth="1" width="27.166666"/>
+    <col min="5" max="5" customWidth="1" width="1.0"/>
+    <col min="6" max="6" customWidth="1" width="0.33333334"/>
+    <col min="7" max="7" customWidth="1" width="4.3333335"/>
+    <col min="8" max="8" customWidth="1" width="3.5"/>
+    <col min="9" max="9" customWidth="1" width="9.666667"/>
+    <col min="10" max="10" customWidth="1" width="23.0"/>
+    <col min="11" max="11" customWidth="1" width="2.8333333"/>
+    <col min="12" max="12" customWidth="1" width="0.16666667"/>
+    <col min="13" max="13" customWidth="1" width="13.166667"/>
+    <col min="14" max="14" customWidth="1" width="6.6666665"/>
+    <col min="15" max="15" customWidth="1" width="0.33333334"/>
+    <col min="16" max="16" customWidth="1" width="0.16666667"/>
+    <col min="17" max="17" customWidth="1" width="3.5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="20">
@@ -129,120 +403,463 @@
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr"/>
       <c r="F1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2" customHeight="1" ht="30">
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr"/>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr"/>
+      <c r="Q1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2" customHeight="1" ht="62">
       <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Reporte de Personas</t>
-          </r>
-        </is>
-      </c>
+      <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-    </row>
-    <row r="3" customHeight="1" ht="20">
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Prueba</t>
+          </r>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3" customHeight="1" ht="22">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4" customHeight="1" ht="20">
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Coffee SubTitle</t>
+          </r>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr"/>
+      <c r="P3" s="1" t="inlineStr"/>
+      <c r="Q3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4" customHeight="1" ht="10">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Nombre</t>
-          </r>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Edad</t>
-          </r>
-        </is>
-      </c>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5" customHeight="1" ht="20">
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
+      <c r="L4" s="1" t="inlineStr"/>
+      <c r="M4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr"/>
+      <c r="P4" s="1" t="inlineStr"/>
+      <c r="Q4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5" customHeight="1" ht="32">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Juan</t>
-          </r>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">30</t>
-          </r>
-        </is>
-      </c>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr"/>
-    </row>
-    <row r="6" customHeight="1" ht="20">
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce auctor purus gravida arcu aliquam mattis. Donec et nulla libero, ut varius massa. Nulla sed turpis elit. Etiam aliquet mauris a ligula hendrerit in auctor leo lobortis.</t>
+          </r>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="10">
       <c r="A6" s="1" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">María</t>
-          </r>
-        </is>
-      </c>
+      <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="1" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">25</t>
-          </r>
-        </is>
-      </c>
+      <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr"/>
-    </row>
-    <row r="7" customHeight="1" ht="20">
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="1" t="inlineStr"/>
+    </row>
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Carlos</t>
-          </r>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">40</t>
-          </r>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
-    </row>
-    <row r="8" customHeight="1" ht="692">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">nombre</t>
+          </r>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="6" t="inlineStr"/>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">edad</t>
+          </r>
+        </is>
+      </c>
+      <c r="K7" s="6" t="inlineStr"/>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
+      <c r="O7" s="6" t="inlineStr"/>
+      <c r="P7" s="1" t="inlineStr"/>
+      <c r="Q7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8" customHeight="1" ht="1">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+      <c r="K8" s="7" t="inlineStr"/>
+      <c r="L8" s="7" t="inlineStr"/>
+      <c r="M8" s="7" t="inlineStr"/>
+      <c r="N8" s="7" t="inlineStr"/>
+      <c r="O8" s="7" t="inlineStr"/>
+      <c r="P8" s="7" t="inlineStr"/>
+      <c r="Q8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9" customHeight="1" ht="15">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Juan</t>
+          </r>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30</t>
+          </r>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr"/>
+      <c r="L9" s="8" t="inlineStr"/>
+      <c r="M9" s="8" t="inlineStr"/>
+      <c r="N9" s="8" t="inlineStr"/>
+      <c r="O9" s="8" t="inlineStr"/>
+      <c r="P9" s="9" t="inlineStr"/>
+      <c r="Q9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="15">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">María</t>
+          </r>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr"/>
+      <c r="J10" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25</t>
+          </r>
+        </is>
+      </c>
+      <c r="K10" s="10" t="inlineStr"/>
+      <c r="L10" s="10" t="inlineStr"/>
+      <c r="M10" s="10" t="inlineStr"/>
+      <c r="N10" s="10" t="inlineStr"/>
+      <c r="O10" s="10" t="inlineStr"/>
+      <c r="P10" s="11" t="inlineStr"/>
+      <c r="Q10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="15">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Carlos</t>
+          </r>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">40</t>
+          </r>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr"/>
+      <c r="L11" s="8" t="inlineStr"/>
+      <c r="M11" s="8" t="inlineStr"/>
+      <c r="N11" s="8" t="inlineStr"/>
+      <c r="O11" s="8" t="inlineStr"/>
+      <c r="P11" s="9" t="inlineStr"/>
+      <c r="Q11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="538">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
+      <c r="M12" s="1" t="inlineStr"/>
+      <c r="N12" s="1" t="inlineStr"/>
+      <c r="O12" s="1" t="inlineStr"/>
+      <c r="P12" s="1" t="inlineStr"/>
+      <c r="Q12" s="1" t="inlineStr"/>
+    </row>
+    <row r="13" customHeight="1" ht="1">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+      <c r="K13" s="7" t="inlineStr"/>
+      <c r="L13" s="7" t="inlineStr"/>
+      <c r="M13" s="7" t="inlineStr"/>
+      <c r="N13" s="7" t="inlineStr"/>
+      <c r="O13" s="7" t="inlineStr"/>
+      <c r="P13" s="7" t="inlineStr"/>
+      <c r="Q13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14" customHeight="1" ht="42">
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
+      <c r="J14" s="1" t="inlineStr"/>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="inlineStr"/>
+      <c r="M14" s="1" t="inlineStr"/>
+      <c r="N14" s="1" t="inlineStr"/>
+      <c r="O14" s="1" t="inlineStr"/>
+      <c r="P14" s="1" t="inlineStr"/>
+      <c r="Q14" s="1" t="inlineStr"/>
+    </row>
+    <row r="15" customHeight="1" ht="1">
+      <c r="A15" s="12" t="inlineStr"/>
+      <c r="B15" s="12" t="inlineStr"/>
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="12" t="inlineStr"/>
+      <c r="E15" s="12" t="inlineStr"/>
+      <c r="F15" s="12" t="inlineStr"/>
+      <c r="G15" s="12" t="inlineStr"/>
+      <c r="H15" s="12" t="inlineStr"/>
+      <c r="I15" s="12" t="inlineStr"/>
+      <c r="J15" s="12" t="inlineStr"/>
+      <c r="K15" s="12" t="inlineStr"/>
+      <c r="L15" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Page 1 of</t>
+          </r>
+        </is>
+      </c>
+      <c r="M15" s="13" t="inlineStr"/>
+      <c r="N15" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"> 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="O15" s="12" t="inlineStr"/>
+      <c r="P15" s="12" t="inlineStr"/>
+      <c r="Q15" s="12" t="inlineStr"/>
+    </row>
+    <row r="16" customHeight="1" ht="19">
+      <c r="A16" s="12" t="inlineStr"/>
+      <c r="B16" s="15" t="inlineStr"/>
+      <c r="C16" s="15" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">sábado 01 noviembre 2025</t>
+          </r>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="14" t="inlineStr"/>
+      <c r="H16" s="15" t="inlineStr"/>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="13" t="inlineStr"/>
+      <c r="M16" s="13" t="inlineStr"/>
+      <c r="N16" s="14" t="inlineStr"/>
+      <c r="O16" s="15" t="inlineStr"/>
+      <c r="P16" s="15" t="inlineStr"/>
+      <c r="Q16" s="12" t="inlineStr"/>
+    </row>
+    <row r="17" customHeight="1" ht="1">
+      <c r="A17" s="12" t="inlineStr"/>
+      <c r="B17" s="15" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="15" t="inlineStr"/>
+      <c r="I17" s="15" t="inlineStr"/>
+      <c r="J17" s="15" t="inlineStr"/>
+      <c r="K17" s="15" t="inlineStr"/>
+      <c r="L17" s="15" t="inlineStr"/>
+      <c r="M17" s="15" t="inlineStr"/>
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="12" t="inlineStr"/>
+    </row>
+    <row r="18" customHeight="1" ht="3">
+      <c r="A18" s="12" t="inlineStr"/>
+      <c r="B18" s="12" t="inlineStr"/>
+      <c r="C18" s="12" t="inlineStr"/>
+      <c r="D18" s="12" t="inlineStr"/>
+      <c r="E18" s="12" t="inlineStr"/>
+      <c r="F18" s="12" t="inlineStr"/>
+      <c r="G18" s="12" t="inlineStr"/>
+      <c r="H18" s="12" t="inlineStr"/>
+      <c r="I18" s="12" t="inlineStr"/>
+      <c r="J18" s="12" t="inlineStr"/>
+      <c r="K18" s="12" t="inlineStr"/>
+      <c r="L18" s="12" t="inlineStr"/>
+      <c r="M18" s="12" t="inlineStr"/>
+      <c r="N18" s="12" t="inlineStr"/>
+      <c r="O18" s="12" t="inlineStr"/>
+      <c r="P18" s="12" t="inlineStr"/>
+      <c r="Q18" s="12" t="inlineStr"/>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="1" t="inlineStr"/>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr"/>
+      <c r="D19" s="1" t="inlineStr"/>
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr"/>
+      <c r="G19" s="1" t="inlineStr"/>
+      <c r="H19" s="1" t="inlineStr"/>
+      <c r="I19" s="1" t="inlineStr"/>
+      <c r="J19" s="1" t="inlineStr"/>
+      <c r="K19" s="1" t="inlineStr"/>
+      <c r="L19" s="1" t="inlineStr"/>
+      <c r="M19" s="1" t="inlineStr"/>
+      <c r="N19" s="1" t="inlineStr"/>
+      <c r="O19" s="1" t="inlineStr"/>
+      <c r="P19" s="1" t="inlineStr"/>
+      <c r="Q19" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C2:D5"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:P6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="C13:P13"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D16:G17"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
